--- a/FullerBudget.xlsx
+++ b/FullerBudget.xlsx
@@ -770,6 +770,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -800,7 +801,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:K165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1139,10 +1139,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
@@ -1150,13 +1150,13 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="34"/>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="38" t="s">
         <v>3</v>
       </c>
@@ -1559,13 +1559,13 @@
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29"/>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="97"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="60">
         <f>SUM(G4:G15)</f>
         <v>36136</v>
@@ -1588,10 +1588,10 @@
       <c r="B17" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
@@ -1936,13 +1936,13 @@
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="29"/>
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="97"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="98"/>
       <c r="G30" s="60">
         <f>SUM(G19:G29)</f>
         <v>7980</v>
@@ -1962,13 +1962,13 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="27"/>
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="97"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="98"/>
       <c r="G31" s="60">
         <f>+G16+G30</f>
         <v>44116</v>
@@ -2020,17 +2020,17 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="53">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="H33" s="62">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="I33" s="62">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="J33" s="55">
         <f t="shared" si="5"/>
-        <v>12000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -2057,12 +2057,12 @@
       <c r="B35" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="104" t="s">
+      <c r="C35" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="106"/>
       <c r="G35" s="54"/>
       <c r="H35" s="62"/>
       <c r="I35" s="62"/>
@@ -2140,13 +2140,13 @@
     </row>
     <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="29"/>
-      <c r="B40" s="98" t="s">
+      <c r="B40" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="97"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="98"/>
       <c r="G40" s="53">
         <f>SUM(G36:G39)</f>
         <v>0</v>
@@ -2290,12 +2290,12 @@
     <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="29"/>
       <c r="B48" s="72"/>
-      <c r="C48" s="96" t="s">
+      <c r="C48" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="97"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="98"/>
       <c r="G48" s="60">
         <f>SUM(G42:G47)</f>
         <v>0</v>
@@ -2346,19 +2346,19 @@
       <c r="F50" s="68"/>
       <c r="G50" s="60">
         <f>+G31+G32+G33+G34+G40+G48</f>
-        <v>48116</v>
+        <v>46616</v>
       </c>
       <c r="H50" s="37">
         <f>+H31+H32+H33+H34+H40+H48</f>
-        <v>49685</v>
+        <v>48185</v>
       </c>
       <c r="I50" s="37">
         <f>+I31+I32+I33+I34+I40+I48</f>
-        <v>51427</v>
+        <v>49927</v>
       </c>
       <c r="J50" s="55">
         <f>SUM(G50:I50)</f>
-        <v>149228</v>
+        <v>144728</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2380,19 +2380,19 @@
       <c r="F51" s="50"/>
       <c r="G51" s="60">
         <f>G55*C51</f>
-        <v>28629</v>
+        <v>27737</v>
       </c>
       <c r="H51" s="37">
         <f>H55*D51</f>
-        <v>30308</v>
+        <v>29393</v>
       </c>
       <c r="I51" s="37">
         <f>I55*E51</f>
-        <v>31370</v>
+        <v>30455</v>
       </c>
       <c r="J51" s="55">
         <f>SUM(G51:I51)</f>
-        <v>90307</v>
+        <v>87585</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2426,19 +2426,19 @@
       <c r="F53" s="44"/>
       <c r="G53" s="79">
         <f>SUM(G50:G52)</f>
-        <v>76745</v>
+        <v>74353</v>
       </c>
       <c r="H53" s="80">
         <f>SUM(H50:H52)</f>
-        <v>79993</v>
+        <v>77578</v>
       </c>
       <c r="I53" s="80">
         <f>SUM(I50:I52)</f>
-        <v>82797</v>
+        <v>80382</v>
       </c>
       <c r="J53" s="87">
         <f>SUM(G53:I53)</f>
-        <v>239535</v>
+        <v>232313</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2464,19 +2464,19 @@
       <c r="F55" s="78"/>
       <c r="G55" s="64">
         <f>+(G50-G32-G40-G46)</f>
-        <v>48116</v>
+        <v>46616</v>
       </c>
       <c r="H55" s="65">
         <f>+(H50-H32-H40-H46)</f>
-        <v>49685</v>
+        <v>48185</v>
       </c>
       <c r="I55" s="89">
         <f>+(I50-I32-I40-I46)</f>
-        <v>51427</v>
+        <v>49927</v>
       </c>
       <c r="J55" s="89">
         <f>SUM(G55:I55)</f>
-        <v>149228</v>
+        <v>144728</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
